--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.286687000000001</v>
+        <v>1.661288333333333</v>
       </c>
       <c r="H2">
-        <v>12.860061</v>
+        <v>4.983865</v>
       </c>
       <c r="I2">
-        <v>0.3636010652499374</v>
+        <v>0.1812815212055838</v>
       </c>
       <c r="J2">
-        <v>0.3636010652499373</v>
+        <v>0.1812815212055839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.316746666666667</v>
+        <v>1.046760666666667</v>
       </c>
       <c r="N2">
-        <v>3.95024</v>
+        <v>3.140282</v>
       </c>
       <c r="O2">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="P2">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="Q2">
-        <v>5.644480818293334</v>
+        <v>1.738971283325556</v>
       </c>
       <c r="R2">
-        <v>50.80032736464</v>
+        <v>15.65074154993</v>
       </c>
       <c r="S2">
-        <v>0.1117696711838419</v>
+        <v>0.04727931854794179</v>
       </c>
       <c r="T2">
-        <v>0.1117696711838419</v>
+        <v>0.0472793185479418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.286687000000001</v>
+        <v>1.661288333333333</v>
       </c>
       <c r="H3">
-        <v>12.860061</v>
+        <v>4.983865</v>
       </c>
       <c r="I3">
-        <v>0.3636010652499374</v>
+        <v>0.1812815212055838</v>
       </c>
       <c r="J3">
-        <v>0.3636010652499373</v>
+        <v>0.1812815212055839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.982997</v>
       </c>
       <c r="O3">
-        <v>0.3877626455404506</v>
+        <v>0.4138468436871376</v>
       </c>
       <c r="P3">
-        <v>0.3877626455404507</v>
+        <v>0.4138468436871375</v>
       </c>
       <c r="Q3">
-        <v>7.120182820313001</v>
+        <v>2.759398260378334</v>
       </c>
       <c r="R3">
-        <v>64.08164538281702</v>
+        <v>24.834584343405</v>
       </c>
       <c r="S3">
-        <v>0.1409909109826417</v>
+        <v>0.07502278536973377</v>
       </c>
       <c r="T3">
-        <v>0.1409909109826417</v>
+        <v>0.07502278536973377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.286687000000001</v>
+        <v>1.661288333333333</v>
       </c>
       <c r="H4">
-        <v>12.860061</v>
+        <v>4.983865</v>
       </c>
       <c r="I4">
-        <v>0.3636010652499374</v>
+        <v>0.1812815212055838</v>
       </c>
       <c r="J4">
-        <v>0.3636010652499373</v>
+        <v>0.1812815212055839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.9174</v>
       </c>
       <c r="O4">
-        <v>0.3048409195590848</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="P4">
-        <v>0.3048409195590849</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="Q4">
-        <v>5.5975558846</v>
+        <v>2.169310305666666</v>
       </c>
       <c r="R4">
-        <v>50.37800296140001</v>
+        <v>19.523792751</v>
       </c>
       <c r="S4">
-        <v>0.1108404830834537</v>
+        <v>0.05897941728790826</v>
       </c>
       <c r="T4">
-        <v>0.1108404830834537</v>
+        <v>0.05897941728790827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.002386</v>
       </c>
       <c r="I5">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847463</v>
       </c>
       <c r="J5">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847464</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.316746666666667</v>
+        <v>1.046760666666667</v>
       </c>
       <c r="N5">
-        <v>3.95024</v>
+        <v>3.140282</v>
       </c>
       <c r="O5">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="P5">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="Q5">
-        <v>9.218273919182224</v>
+        <v>7.328157190316889</v>
       </c>
       <c r="R5">
-        <v>82.96446527264</v>
+        <v>65.95341471285201</v>
       </c>
       <c r="S5">
-        <v>0.1825364418797177</v>
+        <v>0.1992386426921341</v>
       </c>
       <c r="T5">
-        <v>0.1825364418797177</v>
+        <v>0.1992386426921341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.002386</v>
       </c>
       <c r="I6">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847463</v>
       </c>
       <c r="J6">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847464</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.982997</v>
       </c>
       <c r="O6">
-        <v>0.3877626455404506</v>
+        <v>0.4138468436871376</v>
       </c>
       <c r="P6">
-        <v>0.3877626455404507</v>
+        <v>0.4138468436871375</v>
       </c>
       <c r="Q6">
         <v>11.62831404787133</v>
@@ -818,10 +818,10 @@
         <v>104.654826430842</v>
       </c>
       <c r="S6">
-        <v>0.2302590582540068</v>
+        <v>0.3161517210298235</v>
       </c>
       <c r="T6">
-        <v>0.2302590582540068</v>
+        <v>0.3161517210298235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.002386</v>
       </c>
       <c r="I7">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847463</v>
       </c>
       <c r="J7">
-        <v>0.5938144401018293</v>
+        <v>0.7639341119847464</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.9174</v>
       </c>
       <c r="O7">
-        <v>0.3048409195590848</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="P7">
-        <v>0.3048409195590849</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="Q7">
         <v>9.141638546266666</v>
@@ -880,10 +880,10 @@
         <v>82.27474691640001</v>
       </c>
       <c r="S7">
-        <v>0.1810189399681047</v>
+        <v>0.2485437482627885</v>
       </c>
       <c r="T7">
-        <v>0.1810189399681048</v>
+        <v>0.2485437482627886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.506154</v>
       </c>
       <c r="I8">
-        <v>0.04258449464823332</v>
+        <v>0.05478436680966978</v>
       </c>
       <c r="J8">
-        <v>0.04258449464823332</v>
+        <v>0.0547843668096698</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.316746666666667</v>
+        <v>1.046760666666667</v>
       </c>
       <c r="N8">
-        <v>3.95024</v>
+        <v>3.140282</v>
       </c>
       <c r="O8">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="P8">
-        <v>0.3073964349004645</v>
+        <v>0.2608060558711016</v>
       </c>
       <c r="Q8">
-        <v>0.6610744196622222</v>
+        <v>0.5255275883808889</v>
       </c>
       <c r="R8">
-        <v>5.94966977696</v>
+        <v>4.729748295428</v>
       </c>
       <c r="S8">
-        <v>0.01309032183690483</v>
+        <v>0.01428809463102566</v>
       </c>
       <c r="T8">
-        <v>0.01309032183690483</v>
+        <v>0.01428809463102567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.506154</v>
       </c>
       <c r="I9">
-        <v>0.04258449464823332</v>
+        <v>0.05478436680966978</v>
       </c>
       <c r="J9">
-        <v>0.04258449464823332</v>
+        <v>0.0547843668096698</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.982997</v>
       </c>
       <c r="O9">
-        <v>0.3877626455404506</v>
+        <v>0.4138468436871376</v>
       </c>
       <c r="P9">
-        <v>0.3877626455404507</v>
+        <v>0.4138468436871375</v>
       </c>
       <c r="Q9">
         <v>0.8339067626153334</v>
@@ -1004,10 +1004,10 @@
         <v>7.505160863538</v>
       </c>
       <c r="S9">
-        <v>0.01651267630380212</v>
+        <v>0.02267233728758022</v>
       </c>
       <c r="T9">
-        <v>0.01651267630380212</v>
+        <v>0.02267233728758022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.506154</v>
       </c>
       <c r="I10">
-        <v>0.04258449464823332</v>
+        <v>0.05478436680966978</v>
       </c>
       <c r="J10">
-        <v>0.04258449464823332</v>
+        <v>0.0547843668096698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>3.9174</v>
       </c>
       <c r="O10">
-        <v>0.3048409195590848</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="P10">
-        <v>0.3048409195590849</v>
+        <v>0.3253471004417607</v>
       </c>
       <c r="Q10">
         <v>0.6555786310666666</v>
@@ -1066,10 +1066,10 @@
         <v>5.900207679599999</v>
       </c>
       <c r="S10">
-        <v>0.01298149650752637</v>
+        <v>0.0178239348910639</v>
       </c>
       <c r="T10">
-        <v>0.01298149650752637</v>
+        <v>0.0178239348910639</v>
       </c>
     </row>
   </sheetData>
